--- a/OnBoard/output/trust/catch/Catch_Trust_32.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_32.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>0.361</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>61</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>16</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G40">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>19</v>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G41">
-        <v>0.787</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>31</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2118,19 +2118,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>3.73375</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eggs of Raja sp</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EGGSRAJ</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>3.73375</v>
@@ -2200,16 +2200,16 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Eggs of Tonna</t>
+          <t>Galeodea echinophora</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EGGSTON</t>
+          <t>GALEECH</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Galeodea echinophora</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>GALEECH</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I46">
         <v>3.73375</v>
@@ -2282,19 +2282,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I47">
         <v>3.73375</v>
@@ -2323,19 +2323,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G48">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>3.73375</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Mytilus galloprovincialis</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>MYTGALL</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.255</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>3.73375</v>
@@ -2405,16 +2405,16 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Nucula sulcata</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>NUCUSUL</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2446,16 +2446,16 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2487,16 +2487,16 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nucula sulcata</t>
+          <t>Pagurus anachoretus</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NUCUSUL</t>
+          <t>PAGUANA</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -2528,16 +2528,16 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Parthenope angulifrons</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>PARTANG</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2569,16 +2569,16 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pagurus anachoretus</t>
+          <t>Polycarpa sp</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PAGUANA</t>
+          <t>POLYSP</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -2610,16 +2610,16 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Parthenope angulifrons</t>
+          <t>Solenocera membranacea</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PARTANG</t>
+          <t>SOLOMEM</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2651,19 +2651,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Polycarpa sp</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>POLYSP</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>3.73375</v>
@@ -2692,19 +2692,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G57">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I57">
         <v>3.73375</v>
@@ -2733,185 +2733,21 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Solenocera membranacea</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SOLOMEM</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I58">
-        <v>3.73375</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Trachythyone elongata</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>TRACELO</t>
-        </is>
-      </c>
-      <c r="G59">
-        <v>0.004</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59">
-        <v>3.73375</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Trachythyone tergestina</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>TRACTER</t>
-        </is>
-      </c>
-      <c r="G60">
-        <v>0.308</v>
-      </c>
-      <c r="H60">
-        <v>65</v>
-      </c>
-      <c r="I60">
-        <v>3.73375</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G61">
-        <v>29</v>
-      </c>
-      <c r="H61">
-        <v>46</v>
-      </c>
-      <c r="I61">
-        <v>3.73375</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G62">
-        <v>0.866</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
         <v>3.73375</v>
       </c>
     </row>
